--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/46/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/46/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>4.37786</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>4377.86</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.03097</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5030.97</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>5.57738</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>5577.38</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.79766</v>
+        <v>5.80876</v>
       </c>
       <c r="C9" t="n">
-        <v>7797.66</v>
+        <v>5808.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247927</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.640030000000001</v>
+        <v>5.8967</v>
       </c>
       <c r="C10" t="n">
-        <v>8640.030000000001</v>
+        <v>5896.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278852</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>9.42789</v>
+        <v>5.96148</v>
       </c>
       <c r="C11" t="n">
-        <v>9427.889999999999</v>
+        <v>5961.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309777</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2507</v>
+        <v>6.010680000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10250.7</v>
+        <v>6010.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340702</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0422</v>
+        <v>6.06074</v>
       </c>
       <c r="C13" t="n">
-        <v>11042.2</v>
+        <v>6060.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371627</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6232</v>
+        <v>6.09954</v>
       </c>
       <c r="C14" t="n">
-        <v>11623.2</v>
+        <v>6099.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402552</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0401</v>
+        <v>6.13654</v>
       </c>
       <c r="C15" t="n">
-        <v>12040.1</v>
+        <v>6136.54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433477</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2056</v>
+        <v>6.17158</v>
       </c>
       <c r="C16" t="n">
-        <v>12205.6</v>
+        <v>6171.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464402</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1757</v>
+        <v>6.20452</v>
       </c>
       <c r="C17" t="n">
-        <v>12175.7</v>
+        <v>6204.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495327</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>12.142</v>
+        <v>6.23569</v>
       </c>
       <c r="C18" t="n">
-        <v>12142</v>
+        <v>6235.69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262520000000001</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>12.1061</v>
+        <v>6.26533</v>
       </c>
       <c r="C19" t="n">
-        <v>12106.1</v>
+        <v>6265.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557177</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>12.0652</v>
+        <v>6.293340000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>12065.2</v>
+        <v>6293.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588102</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>12.0216</v>
+        <v>6.319770000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>12021.6</v>
+        <v>6319.77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619144</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>11.9749</v>
+        <v>6.34466</v>
       </c>
       <c r="C22" t="n">
-        <v>11974.9</v>
+        <v>6344.66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650317</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>11.9258</v>
+        <v>6.369</v>
       </c>
       <c r="C23" t="n">
-        <v>11925.8</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681489</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>11.875</v>
+        <v>6.39214</v>
       </c>
       <c r="C24" t="n">
-        <v>11875</v>
+        <v>6392.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712666</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>11.8228</v>
+        <v>6.414260000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>11822.8</v>
+        <v>6414.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743839</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>11.7686</v>
+        <v>6.435750000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>11768.6</v>
+        <v>6435.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775016</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>11.7126</v>
+        <v>6.456180000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>11712.6</v>
+        <v>6456.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806188</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>11.6521</v>
+        <v>6.47603</v>
       </c>
       <c r="C28" t="n">
-        <v>11652.1</v>
+        <v>6476.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837361</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>11.5867</v>
+        <v>6.49505</v>
       </c>
       <c r="C29" t="n">
-        <v>11586.7</v>
+        <v>6495.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868538</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>11.5169</v>
+        <v>6.513500000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>11516.9</v>
+        <v>6513.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899711</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>11.4414</v>
+        <v>6.53129</v>
       </c>
       <c r="C31" t="n">
-        <v>11441.4</v>
+        <v>6531.29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930883</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>11.3607</v>
+        <v>6.548430000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>11360.7</v>
+        <v>6548.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.96206</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2751</v>
+        <v>6.56504</v>
       </c>
       <c r="C33" t="n">
-        <v>11275.1</v>
+        <v>6565.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993233</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>11.1828</v>
+        <v>6.58114</v>
       </c>
       <c r="C34" t="n">
-        <v>11182.8</v>
+        <v>6581.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>11.0853</v>
+        <v>6.59673</v>
       </c>
       <c r="C35" t="n">
-        <v>11085.3</v>
+        <v>6596.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>10.9804</v>
+        <v>6.61182</v>
       </c>
       <c r="C36" t="n">
-        <v>10980.4</v>
+        <v>6611.82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>10.8706</v>
+        <v>6.62648</v>
       </c>
       <c r="C37" t="n">
-        <v>10870.6</v>
+        <v>6626.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.11873</v>
       </c>
       <c r="B38" t="n">
-        <v>10.7538</v>
+        <v>6.640680000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>10753.8</v>
+        <v>6640.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14814</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>10.456</v>
+        <v>6.65446</v>
       </c>
       <c r="C39" t="n">
-        <v>10456</v>
+        <v>6654.46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17886</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>8.218159999999999</v>
+        <v>6.66783</v>
       </c>
       <c r="C40" t="n">
-        <v>8218.16</v>
+        <v>6667.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.20991</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>10.3199</v>
+        <v>6.68082</v>
       </c>
       <c r="C41" t="n">
-        <v>10319.9</v>
+        <v>6680.82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24089</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>10.2564</v>
+        <v>6.69344</v>
       </c>
       <c r="C42" t="n">
-        <v>10256.4</v>
+        <v>6693.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27226</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>9.93568</v>
+        <v>6.70567</v>
       </c>
       <c r="C43" t="n">
-        <v>9935.68</v>
+        <v>6705.67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30315</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>10.263</v>
+        <v>6.71757</v>
       </c>
       <c r="C44" t="n">
-        <v>10263</v>
+        <v>6717.57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33402</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>10.1991</v>
+        <v>6.72912</v>
       </c>
       <c r="C45" t="n">
-        <v>10199.1</v>
+        <v>6729.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36513</v>
+        <v>1.36956</v>
       </c>
       <c r="B46" t="n">
-        <v>9.93042</v>
+        <v>6.74032</v>
       </c>
       <c r="C46" t="n">
-        <v>9930.42</v>
+        <v>6740.32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39587</v>
+        <v>1.40053</v>
       </c>
       <c r="B47" t="n">
-        <v>9.67769</v>
+        <v>6.751189999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>9677.690000000001</v>
+        <v>6751.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42729</v>
+        <v>1.4315</v>
       </c>
       <c r="B48" t="n">
-        <v>9.615159999999999</v>
+        <v>6.76173</v>
       </c>
       <c r="C48" t="n">
-        <v>9615.16</v>
+        <v>6761.73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45869</v>
+        <v>1.46247</v>
       </c>
       <c r="B49" t="n">
-        <v>9.37824</v>
+        <v>6.77197</v>
       </c>
       <c r="C49" t="n">
-        <v>9378.24</v>
+        <v>6771.97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48976</v>
+        <v>1.49344</v>
       </c>
       <c r="B50" t="n">
-        <v>9.210930000000001</v>
+        <v>6.781899999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>9210.93</v>
+        <v>6781.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52082</v>
+        <v>1.5244</v>
       </c>
       <c r="B51" t="n">
-        <v>9.06771</v>
+        <v>6.79154</v>
       </c>
       <c r="C51" t="n">
-        <v>9067.709999999999</v>
+        <v>6791.54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55179</v>
+        <v>1.55537</v>
       </c>
       <c r="B52" t="n">
-        <v>8.83159</v>
+        <v>6.80088</v>
       </c>
       <c r="C52" t="n">
-        <v>8831.59</v>
+        <v>6800.88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58279</v>
+        <v>1.58634</v>
       </c>
       <c r="B53" t="n">
-        <v>8.69839</v>
+        <v>6.80993</v>
       </c>
       <c r="C53" t="n">
-        <v>8698.389999999999</v>
+        <v>6809.93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61381</v>
+        <v>1.61731</v>
       </c>
       <c r="B54" t="n">
-        <v>8.50103</v>
+        <v>6.81873</v>
       </c>
       <c r="C54" t="n">
-        <v>8501.030000000001</v>
+        <v>6818.73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6448</v>
+        <v>1.64828</v>
       </c>
       <c r="B55" t="n">
-        <v>8.356459999999998</v>
+        <v>6.82727</v>
       </c>
       <c r="C55" t="n">
-        <v>8356.459999999999</v>
+        <v>6827.27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67591</v>
+        <v>1.67905</v>
       </c>
       <c r="B56" t="n">
-        <v>8.129490000000001</v>
+        <v>6.83554</v>
       </c>
       <c r="C56" t="n">
-        <v>8129.49</v>
+        <v>6835.54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70673</v>
+        <v>1.70961</v>
       </c>
       <c r="B57" t="n">
-        <v>7.969810000000001</v>
+        <v>6.84358</v>
       </c>
       <c r="C57" t="n">
-        <v>7969.81</v>
+        <v>6843.58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73793</v>
+        <v>1.74016</v>
       </c>
       <c r="B58" t="n">
-        <v>7.757060000000001</v>
+        <v>6.85136</v>
       </c>
       <c r="C58" t="n">
-        <v>7757.06</v>
+        <v>6851.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76844</v>
+        <v>1.77071</v>
       </c>
       <c r="B59" t="n">
-        <v>7.58871</v>
+        <v>6.858890000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>7588.71</v>
+        <v>6858.89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79995</v>
+        <v>1.80127</v>
       </c>
       <c r="B60" t="n">
-        <v>7.46166</v>
+        <v>6.866180000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>7461.66</v>
+        <v>6866.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83073</v>
+        <v>1.83183</v>
       </c>
       <c r="B61" t="n">
-        <v>7.27725</v>
+        <v>6.87326</v>
       </c>
       <c r="C61" t="n">
-        <v>7277.25</v>
+        <v>6873.26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86187</v>
+        <v>1.86238</v>
       </c>
       <c r="B62" t="n">
-        <v>7.11832</v>
+        <v>6.880100000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>7118.32</v>
+        <v>6880.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89305</v>
+        <v>1.89385</v>
       </c>
       <c r="B63" t="n">
-        <v>6.984109999999999</v>
+        <v>6.88687</v>
       </c>
       <c r="C63" t="n">
-        <v>6984.11</v>
+        <v>6886.87</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92349</v>
+        <v>1.92543</v>
       </c>
       <c r="B64" t="n">
-        <v>6.85088</v>
+        <v>6.893470000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>6850.88</v>
+        <v>6893.47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95487</v>
+        <v>1.957</v>
       </c>
       <c r="B65" t="n">
-        <v>6.725270000000001</v>
+        <v>6.8998</v>
       </c>
       <c r="C65" t="n">
-        <v>6725.27</v>
+        <v>6899.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.9859</v>
+        <v>1.98844</v>
       </c>
       <c r="B66" t="n">
-        <v>6.59916</v>
+        <v>6.90595</v>
       </c>
       <c r="C66" t="n">
-        <v>6599.16</v>
+        <v>6905.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01646</v>
+        <v>2.01975</v>
       </c>
       <c r="B67" t="n">
-        <v>6.495130000000001</v>
+        <v>6.911840000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>6495.13</v>
+        <v>6911.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04775</v>
+        <v>2.05133</v>
       </c>
       <c r="B68" t="n">
-        <v>6.40383</v>
+        <v>6.91753</v>
       </c>
       <c r="C68" t="n">
-        <v>6403.83</v>
+        <v>6917.53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07884</v>
+        <v>2.0829</v>
       </c>
       <c r="B69" t="n">
-        <v>6.277640000000001</v>
+        <v>6.92298</v>
       </c>
       <c r="C69" t="n">
-        <v>6277.64</v>
+        <v>6922.98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10992</v>
+        <v>2.11448</v>
       </c>
       <c r="B70" t="n">
-        <v>6.19715</v>
+        <v>6.92821</v>
       </c>
       <c r="C70" t="n">
-        <v>6197.15</v>
+        <v>6928.21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14048</v>
+        <v>2.1456</v>
       </c>
       <c r="B71" t="n">
-        <v>6.08647</v>
+        <v>6.93323</v>
       </c>
       <c r="C71" t="n">
-        <v>6086.47</v>
+        <v>6933.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17197</v>
+        <v>2.17632</v>
       </c>
       <c r="B72" t="n">
-        <v>6.01541</v>
+        <v>6.938029999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>6015.41</v>
+        <v>6938.03</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20345</v>
+        <v>2.20704</v>
       </c>
       <c r="B73" t="n">
-        <v>5.91811</v>
+        <v>6.94262</v>
       </c>
       <c r="C73" t="n">
-        <v>5918.11</v>
+        <v>6942.62</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23311</v>
+        <v>2.23775</v>
       </c>
       <c r="B74" t="n">
-        <v>5.85769</v>
+        <v>6.94702</v>
       </c>
       <c r="C74" t="n">
-        <v>5857.69</v>
+        <v>6947.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26449</v>
+        <v>2.26848</v>
       </c>
       <c r="B75" t="n">
-        <v>5.76308</v>
+        <v>6.95123</v>
       </c>
       <c r="C75" t="n">
-        <v>5763.08</v>
+        <v>6951.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29603</v>
+        <v>2.2992</v>
       </c>
       <c r="B76" t="n">
-        <v>5.73747</v>
+        <v>6.955220000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>5737.47</v>
+        <v>6955.22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32675</v>
+        <v>2.32992</v>
       </c>
       <c r="B77" t="n">
-        <v>5.72925</v>
+        <v>6.95901</v>
       </c>
       <c r="C77" t="n">
-        <v>5729.25</v>
+        <v>6959.01</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35748</v>
+        <v>2.36064</v>
       </c>
       <c r="B78" t="n">
-        <v>5.74036</v>
+        <v>6.9626</v>
       </c>
       <c r="C78" t="n">
-        <v>5740.36</v>
+        <v>6962.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38873</v>
+        <v>2.39136</v>
       </c>
       <c r="B79" t="n">
-        <v>5.70356</v>
+        <v>6.96603</v>
       </c>
       <c r="C79" t="n">
-        <v>5703.56</v>
+        <v>6966.03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42002</v>
+        <v>2.42208</v>
       </c>
       <c r="B80" t="n">
-        <v>5.67447</v>
+        <v>6.96923</v>
       </c>
       <c r="C80" t="n">
-        <v>5674.47</v>
+        <v>6969.23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44857</v>
+        <v>2.45279</v>
       </c>
       <c r="B81" t="n">
-        <v>5.68478</v>
+        <v>6.97225</v>
       </c>
       <c r="C81" t="n">
-        <v>5684.78</v>
+        <v>6972.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4779</v>
+        <v>2.48352</v>
       </c>
       <c r="B82" t="n">
-        <v>5.621180000000001</v>
+        <v>6.97505</v>
       </c>
       <c r="C82" t="n">
-        <v>5621.18</v>
+        <v>6975.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51278</v>
+        <v>2.51424</v>
       </c>
       <c r="B83" t="n">
-        <v>5.603689999999999</v>
+        <v>6.97767</v>
       </c>
       <c r="C83" t="n">
-        <v>5603.69</v>
+        <v>6977.67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54795</v>
+        <v>2.54496</v>
       </c>
       <c r="B84" t="n">
-        <v>5.54828</v>
+        <v>6.9801</v>
       </c>
       <c r="C84" t="n">
-        <v>5548.28</v>
+        <v>6980.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58093</v>
+        <v>2.57567</v>
       </c>
       <c r="B85" t="n">
-        <v>5.55776</v>
+        <v>6.98235</v>
       </c>
       <c r="C85" t="n">
-        <v>5557.76</v>
+        <v>6982.35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61296</v>
+        <v>2.6064</v>
       </c>
       <c r="B86" t="n">
-        <v>5.5022</v>
+        <v>6.98436</v>
       </c>
       <c r="C86" t="n">
-        <v>5502.2</v>
+        <v>6984.36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64496</v>
+        <v>2.63712</v>
       </c>
       <c r="B87" t="n">
-        <v>5.460020000000001</v>
+        <v>6.98621</v>
       </c>
       <c r="C87" t="n">
-        <v>5460.02</v>
+        <v>6986.21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67696</v>
+        <v>2.66764</v>
       </c>
       <c r="B88" t="n">
-        <v>5.43763</v>
+        <v>6.98786</v>
       </c>
       <c r="C88" t="n">
-        <v>5437.63</v>
+        <v>6987.86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70896</v>
+        <v>2.69751</v>
       </c>
       <c r="B89" t="n">
-        <v>5.40746</v>
+        <v>6.9893</v>
       </c>
       <c r="C89" t="n">
-        <v>5407.46</v>
+        <v>6989.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74096</v>
+        <v>2.72738</v>
       </c>
       <c r="B90" t="n">
-        <v>5.38147</v>
+        <v>6.99054</v>
       </c>
       <c r="C90" t="n">
-        <v>5381.47</v>
+        <v>6990.54</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77296</v>
+        <v>2.75724</v>
       </c>
       <c r="B91" t="n">
-        <v>5.346649999999999</v>
+        <v>6.99158</v>
       </c>
       <c r="C91" t="n">
-        <v>5346.65</v>
+        <v>6991.58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80482</v>
+        <v>2.78711</v>
       </c>
       <c r="B92" t="n">
-        <v>5.30894</v>
+        <v>6.99241</v>
       </c>
       <c r="C92" t="n">
-        <v>5308.94</v>
+        <v>6992.41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83397</v>
+        <v>2.81698</v>
       </c>
       <c r="B93" t="n">
-        <v>5.26625</v>
+        <v>6.99304</v>
       </c>
       <c r="C93" t="n">
-        <v>5266.25</v>
+        <v>6993.04</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86283</v>
+        <v>2.84784</v>
       </c>
       <c r="B94" t="n">
-        <v>5.22776</v>
+        <v>6.99347</v>
       </c>
       <c r="C94" t="n">
-        <v>5227.76</v>
+        <v>6993.47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89164</v>
+        <v>2.87984</v>
       </c>
       <c r="B95" t="n">
-        <v>5.216430000000001</v>
+        <v>6.99366</v>
       </c>
       <c r="C95" t="n">
-        <v>5216.43</v>
+        <v>6993.66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92044</v>
+        <v>2.91184</v>
       </c>
       <c r="B96" t="n">
-        <v>5.19134</v>
+        <v>6.993600000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>5191.34</v>
+        <v>6993.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94924</v>
+        <v>2.94384</v>
       </c>
       <c r="B97" t="n">
-        <v>5.14217</v>
+        <v>6.99331</v>
       </c>
       <c r="C97" t="n">
-        <v>5142.17</v>
+        <v>6993.31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97804</v>
+        <v>2.97584</v>
       </c>
       <c r="B98" t="n">
-        <v>5.13648</v>
+        <v>6.99271</v>
       </c>
       <c r="C98" t="n">
-        <v>5136.48</v>
+        <v>6992.71</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00684</v>
+        <v>3.00784</v>
       </c>
       <c r="B99" t="n">
-        <v>5.1005</v>
+        <v>6.99187</v>
       </c>
       <c r="C99" t="n">
-        <v>5100.5</v>
+        <v>6991.87</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03564</v>
+        <v>3.03984</v>
       </c>
       <c r="B100" t="n">
-        <v>5.07739</v>
+        <v>6.990760000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>5077.39</v>
+        <v>6990.76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06444</v>
+        <v>3.07184</v>
       </c>
       <c r="B101" t="n">
-        <v>5.03799</v>
+        <v>6.98936</v>
       </c>
       <c r="C101" t="n">
-        <v>5037.99</v>
+        <v>6989.36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09324</v>
+        <v>3.10318</v>
       </c>
       <c r="B102" t="n">
-        <v>5.027880000000001</v>
+        <v>6.98772</v>
       </c>
       <c r="C102" t="n">
-        <v>5027.88</v>
+        <v>6987.72</v>
       </c>
     </row>
   </sheetData>
